--- a/script/wsh/tools/sb2xls3/_main.xlsx
+++ b/script/wsh/tools/sb2xls3/_main.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -109,12 +109,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
